--- a/old_database/crypto/bioSample/bioSample_0711_5_0718_7.xlsx
+++ b/old_database/crypto/bioSample/bioSample_0711_5_0718_7.xlsx
@@ -61,7 +61,7 @@
     <t>04.10.12</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0711_5_0718_7</t>
   </si>
   <si>
     <t>CNAG_00000</t>

--- a/old_database/crypto/bioSample/bioSample_0711_5_0718_7.xlsx
+++ b/old_database/crypto/bioSample/bioSample_0711_5_0718_7.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/old_database/crypto/bioSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A600B8C-BE37-8944-9649-3A2C79FFDFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="24">
   <si>
     <t>harvestDate</t>
   </si>
@@ -61,9 +67,6 @@
     <t>04.10.12</t>
   </si>
   <si>
-    <t>Retrofitted_0711_5_0718_7</t>
-  </si>
-  <si>
     <t>CNAG_00000</t>
   </si>
   <si>
@@ -83,13 +86,19 @@
   </si>
   <si>
     <t>37C.CO2</t>
+  </si>
+  <si>
+    <t>S.GISH</t>
+  </si>
+  <si>
+    <t>90minuteInduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +110,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,17 +157,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +255,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +307,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:D45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,21 +547,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>90</v>
@@ -507,21 +573,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>90</v>
@@ -530,21 +599,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>90</v>
@@ -553,21 +625,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>90</v>
@@ -576,21 +651,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>90</v>
@@ -599,21 +677,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>90</v>
@@ -622,21 +703,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>90</v>
@@ -645,21 +729,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>90</v>
@@ -668,21 +755,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
         <v>90</v>
@@ -691,21 +781,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
         <v>90</v>
@@ -714,21 +807,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
         <v>90</v>
@@ -737,21 +833,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13">
         <v>90</v>
@@ -760,21 +859,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14">
         <v>90</v>
@@ -783,21 +885,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15">
         <v>90</v>
@@ -806,21 +911,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16">
         <v>90</v>
@@ -829,21 +937,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17">
         <v>90</v>
@@ -852,21 +963,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18">
         <v>90</v>
@@ -875,21 +989,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19">
         <v>90</v>
@@ -898,21 +1015,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20">
         <v>90</v>
@@ -921,21 +1041,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21">
         <v>90</v>
@@ -944,21 +1067,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22">
         <v>90</v>
@@ -967,21 +1093,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23">
         <v>90</v>
@@ -990,21 +1119,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24">
         <v>90</v>
@@ -1013,21 +1145,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K25">
         <v>90</v>
@@ -1036,21 +1171,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K26">
         <v>90</v>
@@ -1059,21 +1197,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27">
         <v>90</v>
@@ -1082,21 +1223,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K28">
         <v>90</v>
@@ -1105,21 +1249,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K29">
         <v>90</v>
@@ -1128,21 +1275,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K30">
         <v>90</v>
@@ -1151,21 +1301,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K31">
         <v>90</v>
@@ -1174,21 +1327,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32">
         <v>90</v>
@@ -1197,21 +1353,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33">
         <v>90</v>
@@ -1220,21 +1379,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34">
         <v>90</v>
@@ -1243,21 +1405,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35">
         <v>90</v>
@@ -1266,21 +1431,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K36">
         <v>90</v>
@@ -1289,21 +1457,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37">
         <v>90</v>
@@ -1312,21 +1483,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K38">
         <v>90</v>
@@ -1335,21 +1509,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K39">
         <v>90</v>
@@ -1358,21 +1535,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K40">
         <v>90</v>
@@ -1381,21 +1561,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K41">
         <v>90</v>
@@ -1404,21 +1587,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K42">
         <v>90</v>
@@ -1427,21 +1613,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K43">
         <v>90</v>
@@ -1450,21 +1639,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K44">
         <v>90</v>
@@ -1473,21 +1665,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K45">
         <v>90</v>

--- a/old_database/crypto/bioSample/bioSample_0711_5_0718_7.xlsx
+++ b/old_database/crypto/bioSample/bioSample_0711_5_0718_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/old_database/crypto/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A600B8C-BE37-8944-9649-3A2C79FFDFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8AA591-538B-0644-B1BC-1BD2E957D274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12920" yWindow="460" windowWidth="16100" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="30">
   <si>
     <t>harvestDate</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>90minuteInduction</t>
+  </si>
+  <si>
+    <t>KN99alpha</t>
+  </si>
+  <si>
+    <t>TDY1301</t>
+  </si>
+  <si>
+    <t>TDY1305</t>
+  </si>
+  <si>
+    <t>TDY1276</t>
+  </si>
+  <si>
+    <t>TDY1325</t>
+  </si>
+  <si>
+    <t>TDY1319</t>
   </si>
 </sst>
 </file>
@@ -504,7 +522,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:D45"/>
+      <selection activeCell="F43" sqref="F43:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -560,6 +578,9 @@
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
@@ -586,6 +607,9 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -612,6 +636,9 @@
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -638,6 +665,9 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -664,6 +694,9 @@
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
@@ -690,6 +723,9 @@
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
@@ -716,6 +752,9 @@
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
@@ -742,6 +781,9 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
@@ -768,6 +810,9 @@
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
@@ -794,6 +839,9 @@
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
@@ -820,6 +868,9 @@
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
@@ -846,6 +897,9 @@
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
@@ -872,6 +926,9 @@
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
@@ -898,6 +955,9 @@
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
@@ -924,6 +984,9 @@
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
@@ -950,6 +1013,9 @@
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
@@ -976,6 +1042,9 @@
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
       <c r="G18" t="s">
         <v>15</v>
       </c>
@@ -1002,6 +1071,9 @@
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
@@ -1028,6 +1100,9 @@
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
@@ -1054,6 +1129,9 @@
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
       <c r="G21" t="s">
         <v>20</v>
       </c>
@@ -1080,6 +1158,9 @@
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
@@ -1106,6 +1187,9 @@
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
       <c r="G23" t="s">
         <v>20</v>
       </c>
@@ -1132,6 +1216,9 @@
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
@@ -1158,6 +1245,9 @@
       <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
@@ -1184,6 +1274,9 @@
       <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
@@ -1210,6 +1303,9 @@
       <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
@@ -1236,6 +1332,9 @@
       <c r="D28" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
@@ -1262,6 +1361,9 @@
       <c r="D29" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
       <c r="G29" t="s">
         <v>17</v>
       </c>
@@ -1288,6 +1390,9 @@
       <c r="D30" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
       <c r="G30" t="s">
         <v>17</v>
       </c>
@@ -1314,6 +1419,9 @@
       <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
       <c r="G31" t="s">
         <v>15</v>
       </c>
@@ -1340,6 +1448,9 @@
       <c r="D32" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
       <c r="G32" t="s">
         <v>15</v>
       </c>
@@ -1366,6 +1477,9 @@
       <c r="D33" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
       <c r="G33" t="s">
         <v>15</v>
       </c>
@@ -1392,6 +1506,9 @@
       <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
       <c r="G34" t="s">
         <v>18</v>
       </c>
@@ -1418,6 +1535,9 @@
       <c r="D35" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
       <c r="G35" t="s">
         <v>18</v>
       </c>
@@ -1444,6 +1564,9 @@
       <c r="D36" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
       <c r="G36" t="s">
         <v>18</v>
       </c>
@@ -1470,6 +1593,9 @@
       <c r="D37" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
@@ -1496,6 +1622,9 @@
       <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
       <c r="G38" t="s">
         <v>19</v>
       </c>
@@ -1522,6 +1651,9 @@
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
       <c r="G39" t="s">
         <v>19</v>
       </c>
@@ -1548,6 +1680,9 @@
       <c r="D40" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
       <c r="G40" t="s">
         <v>15</v>
       </c>
@@ -1574,6 +1709,9 @@
       <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
       <c r="G41" t="s">
         <v>15</v>
       </c>
@@ -1600,6 +1738,9 @@
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
       <c r="G42" t="s">
         <v>15</v>
       </c>
@@ -1626,6 +1767,9 @@
       <c r="D43" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
       <c r="G43" t="s">
         <v>20</v>
       </c>
@@ -1652,6 +1796,9 @@
       <c r="D44" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
       <c r="G44" t="s">
         <v>20</v>
       </c>
@@ -1677,6 +1824,9 @@
       </c>
       <c r="D45" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
